--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H2">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01399966666666667</v>
+        <v>0.008504666666666666</v>
       </c>
       <c r="N2">
-        <v>0.041999</v>
+        <v>0.025514</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3779124020559003</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3779124020559003</v>
       </c>
       <c r="Q2">
-        <v>0.1666746414616667</v>
+        <v>0.2009684625833333</v>
       </c>
       <c r="R2">
-        <v>1.500071773155</v>
+        <v>1.80871616325</v>
       </c>
       <c r="S2">
-        <v>0.8197078149061106</v>
+        <v>0.3402117894925927</v>
       </c>
       <c r="T2">
-        <v>0.8197078149061106</v>
+        <v>0.3402117894925927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63134</v>
+        <v>23.630375</v>
       </c>
       <c r="H3">
-        <v>4.894019999999999</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I3">
-        <v>0.1123186115768849</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J3">
-        <v>0.1123186115768849</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.041999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6220875979440996</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6220875979440996</v>
       </c>
       <c r="Q3">
-        <v>0.02283821622</v>
+        <v>0.3308173732083333</v>
       </c>
       <c r="R3">
-        <v>0.20554394598</v>
+        <v>2.977356358875</v>
       </c>
       <c r="S3">
-        <v>0.1123186115768849</v>
+        <v>0.5600280217488203</v>
       </c>
       <c r="T3">
-        <v>0.1123186115768849</v>
+        <v>0.5600280217488203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.987263</v>
+        <v>1.63134</v>
       </c>
       <c r="H4">
-        <v>2.961789</v>
+        <v>4.894019999999999</v>
       </c>
       <c r="I4">
-        <v>0.0679735735170045</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J4">
-        <v>0.06797357351700449</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
+        <v>0.008504666666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.025514</v>
+      </c>
+      <c r="O4">
+        <v>0.3779124020559003</v>
+      </c>
+      <c r="P4">
+        <v>0.3779124020559003</v>
+      </c>
+      <c r="Q4">
+        <v>0.01387400292</v>
+      </c>
+      <c r="R4">
+        <v>0.12486602628</v>
+      </c>
+      <c r="S4">
+        <v>0.02348676653124828</v>
+      </c>
+      <c r="T4">
+        <v>0.02348676653124828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.63134</v>
+      </c>
+      <c r="H5">
+        <v>4.894019999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.06214870537054815</v>
+      </c>
+      <c r="J5">
+        <v>0.06214870537054815</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
         <v>0.01399966666666667</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>0.041999</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="O5">
+        <v>0.6220875979440996</v>
+      </c>
+      <c r="P5">
+        <v>0.6220875979440996</v>
+      </c>
+      <c r="Q5">
+        <v>0.02283821622</v>
+      </c>
+      <c r="R5">
+        <v>0.20554394598</v>
+      </c>
+      <c r="S5">
+        <v>0.03866193883929986</v>
+      </c>
+      <c r="T5">
+        <v>0.03866193883929986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.987263</v>
+      </c>
+      <c r="H6">
+        <v>2.961789</v>
+      </c>
+      <c r="I6">
+        <v>0.03761148338803896</v>
+      </c>
+      <c r="J6">
+        <v>0.03761148338803896</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.008504666666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.025514</v>
+      </c>
+      <c r="O6">
+        <v>0.3779124020559003</v>
+      </c>
+      <c r="P6">
+        <v>0.3779124020559003</v>
+      </c>
+      <c r="Q6">
+        <v>0.008396342727333332</v>
+      </c>
+      <c r="R6">
+        <v>0.075567084546</v>
+      </c>
+      <c r="S6">
+        <v>0.01421384603205939</v>
+      </c>
+      <c r="T6">
+        <v>0.0142138460320594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.987263</v>
+      </c>
+      <c r="H7">
+        <v>2.961789</v>
+      </c>
+      <c r="I7">
+        <v>0.03761148338803896</v>
+      </c>
+      <c r="J7">
+        <v>0.03761148338803896</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01399966666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.041999</v>
+      </c>
+      <c r="O7">
+        <v>0.6220875979440996</v>
+      </c>
+      <c r="P7">
+        <v>0.6220875979440996</v>
+      </c>
+      <c r="Q7">
         <v>0.01382135291233333</v>
       </c>
-      <c r="R4">
+      <c r="R7">
         <v>0.124392176211</v>
       </c>
-      <c r="S4">
-        <v>0.0679735735170045</v>
-      </c>
-      <c r="T4">
-        <v>0.06797357351700449</v>
+      <c r="S7">
+        <v>0.02339763735597956</v>
+      </c>
+      <c r="T7">
+        <v>0.02339763735597956</v>
       </c>
     </row>
   </sheetData>
